--- a/Bai_thuc_hanh_so_4_Doan_Quoc_Bao.xlsx
+++ b/Bai_thuc_hanh_so_4_Doan_Quoc_Bao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Internet_Data" sheetId="2" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +185,6 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -656,158 +649,162 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -815,6 +812,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1168,7 +1166,7 @@
   <sheetPr/>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1185,6 @@
       <c r="A2">
         <v>3.6</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -1205,12 +1202,11 @@
       <c r="A3">
         <v>1.9</v>
       </c>
-      <c r="B3"/>
-      <c r="C3" s="9" cm="1">
+      <c r="C3" s="12" cm="1">
         <f t="array" ref="C3:C63">_xlfn.UNIQUE(A2:A101)</f>
         <v>3.6</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <f>COUNTIF($A$2:$A$101,C3)</f>
         <v>1</v>
       </c>
@@ -1248,7 +1244,7 @@
       <c r="C5">
         <v>6.7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="12">
         <f t="shared" ref="D5:D36" si="0">COUNTIF($A$2:$A$101,C5)</f>
         <v>1</v>
       </c>
@@ -1284,7 +1280,7 @@
       <c r="C7">
         <v>5.6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1320,7 +1316,7 @@
       <c r="C9">
         <v>1.1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1356,7 +1352,7 @@
       <c r="C11">
         <v>0.9</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1392,7 +1388,7 @@
       <c r="C13">
         <v>1.4</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1428,7 +1424,7 @@
       <c r="C15">
         <v>8.4</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1464,7 +1460,7 @@
       <c r="C17">
         <v>2.6</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1500,7 +1496,7 @@
       <c r="C19">
         <v>9.5</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1536,7 +1532,7 @@
       <c r="C21">
         <v>4.3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1572,7 +1568,7 @@
       <c r="C23">
         <v>8.7</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1608,7 +1604,7 @@
       <c r="C25">
         <v>1.6</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1644,7 +1640,7 @@
       <c r="C27">
         <v>8.3</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1680,7 +1676,7 @@
       <c r="C29">
         <v>6.6</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1716,7 +1712,7 @@
       <c r="C31">
         <v>2.5</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1752,7 +1748,7 @@
       <c r="C33">
         <v>3.5</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1788,7 +1784,7 @@
       <c r="C35">
         <v>4.8</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1824,7 +1820,7 @@
       <c r="C37">
         <v>7.1</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="12">
         <f t="shared" ref="D37:D63" si="1">COUNTIF($A$2:$A$101,C37)</f>
         <v>2</v>
       </c>
@@ -1860,7 +1856,7 @@
       <c r="C39">
         <v>5.5</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1896,7 +1892,7 @@
       <c r="C41">
         <v>7.4</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1932,7 +1928,7 @@
       <c r="C43">
         <v>7.7</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1968,7 +1964,7 @@
       <c r="C45">
         <v>6.8</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2004,7 +2000,7 @@
       <c r="C47">
         <v>5.9</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2040,7 +2036,7 @@
       <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2076,7 +2072,7 @@
       <c r="C51">
         <v>9.9</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2112,7 +2108,7 @@
       <c r="C53">
         <v>6.9</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2148,7 +2144,7 @@
       <c r="C55">
         <v>4.9</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2184,7 +2180,7 @@
       <c r="C57">
         <v>2.9</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2220,7 +2216,7 @@
       <c r="C59">
         <v>8.9</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2256,7 +2252,7 @@
       <c r="C61">
         <v>4.4</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2292,7 +2288,7 @@
       <c r="C63">
         <v>9.6</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2307,15 +2303,15 @@
       <c r="A64">
         <v>7.1</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="13">
         <f>SUM(D3:D63)</f>
         <v>100</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="13">
         <f>SUM(E3:E63)</f>
         <v>497</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="13">
         <f>SUM(F3:F63)</f>
         <v>3208.1</v>
       </c>
@@ -2329,7 +2325,7 @@
       <c r="A66">
         <v>6</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D66">
@@ -2341,10 +2337,10 @@
       <c r="A67">
         <v>4.8</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="12">
         <f>_xlfn.VAR.S(A2:A101)</f>
         <v>7.45464646464647</v>
       </c>
@@ -2353,10 +2349,10 @@
       <c r="A68">
         <v>8.5</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="12">
         <f>_xlfn.STDEV.S(A2:A101)</f>
         <v>2.73031984658327</v>
       </c>
@@ -2527,7 +2523,7 @@
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="9"/>
+      <c r="B103" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2540,8 +2536,8 @@
   <sheetPr/>
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -2599,7 +2595,7 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
@@ -2621,11 +2617,11 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <f>AVERAGE(D2:D101)</f>
         <v>23.855580794398</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
@@ -2651,7 +2647,7 @@
         <f>MEDIAN(D2:D101)</f>
         <v>23.5927328882492</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
@@ -2677,7 +2673,7 @@
         <f>_xlfn.VAR.S(D2:D101)</f>
         <v>32.1762195301032</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
@@ -2703,7 +2699,7 @@
         <f>_xlfn.STDEV.S(D2:D101)</f>
         <v>5.67240861804782</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
@@ -2803,10 +2799,10 @@
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
@@ -2832,8 +2828,8 @@
         <f>COUNTIF(E2:E101,"Gầy")</f>
         <v>20</v>
       </c>
-      <c r="I12" s="8">
-        <f>H12/100</f>
+      <c r="I12" s="10">
+        <f>H12/$H$16</f>
         <v>0.2</v>
       </c>
     </row>
@@ -2861,8 +2857,8 @@
         <f>COUNTIF(E2:E101,"Bình thường")</f>
         <v>38</v>
       </c>
-      <c r="I13" s="8">
-        <f>H13/100</f>
+      <c r="I13" s="10">
+        <f>H13/$H$16</f>
         <v>0.38</v>
       </c>
     </row>
@@ -2890,8 +2886,8 @@
         <f>COUNTIF(E2:E101,"Thừa cân")</f>
         <v>28</v>
       </c>
-      <c r="I14" s="8">
-        <f>H14/100</f>
+      <c r="I14" s="10">
+        <f>H14/$H$16</f>
         <v>0.28</v>
       </c>
     </row>
@@ -2919,12 +2915,12 @@
         <f>COUNTIF(E2:E101,"Béo phì")</f>
         <v>14</v>
       </c>
-      <c r="I15" s="8">
-        <f>H15/100</f>
+      <c r="I15" s="10">
+        <f>H15/$H$16</f>
         <v>0.14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2940,6 +2936,13 @@
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Thừa cân</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <v>100</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3856,7 +3859,7 @@
         <v>21.6721101309484</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" ref="E67:E98" si="2">IF(D67&lt;18.5,"Gầy",IF(D67&lt;25,"Bình thường",IF(D67&lt;30,"Thừa cân","Béo phì")))</f>
+        <f t="shared" ref="E67:E101" si="2">IF(D67&lt;18.5,"Gầy",IF(D67&lt;25,"Bình thường",IF(D67&lt;30,"Thừa cân","Béo phì")))</f>
         <v>Bình thường</v>
       </c>
     </row>
@@ -4432,7 +4435,7 @@
         <v>14.8502066115702</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>IF(D99&lt;18.5,"Gầy",IF(D99&lt;25,"Bình thường",IF(D99&lt;30,"Thừa cân","Béo phì")))</f>
+        <f t="shared" si="2"/>
         <v>Gầy</v>
       </c>
     </row>
@@ -4450,7 +4453,7 @@
         <v>22.8930740819877</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>IF(D100&lt;18.5,"Gầy",IF(D100&lt;25,"Bình thường",IF(D100&lt;30,"Thừa cân","Béo phì")))</f>
+        <f t="shared" si="2"/>
         <v>Bình thường</v>
       </c>
     </row>
@@ -4468,7 +4471,7 @@
         <v>16.2292063293905</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>IF(D101&lt;18.5,"Gầy",IF(D101&lt;25,"Bình thường",IF(D101&lt;30,"Thừa cân","Béo phì")))</f>
+        <f t="shared" si="2"/>
         <v>Gầy</v>
       </c>
     </row>
